--- a/orders_db.xlsx
+++ b/orders_db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,6 +755,46 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ORD-20250428-8406</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-04-28 12:54:16</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[{'id': 1, 'name': 'Paracetamol', 'quantity': 1, 'price': np.float64(5.99), 'subtotal': np.float64(5.99)}]</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Processing</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
